--- a/base_solo_estudios.xlsx
+++ b/base_solo_estudios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -315,6 +315,39 @@
   </si>
   <si>
     <t xml:space="preserve">Diversidad y Habitat de la comunidad Ornitológica de la Quebrad de Tacahuay de la Región Tacna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobierno Regional de Tacna.Gerencia de Recursos Naturales y Gestión del Medio Ambiente. Proyecto Zonificación Ecológica Económica de Tacna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Zambrano Pinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eje Temático Ecología Marina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">César Nicolás Cáceres Musaja, Samuel Rubén Yufra Silva, Javier Ignacio Apaza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eje Temático de Biodiversidad y Ecosistemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobierno Regional de Tacna. GRRNyGMA. Proyecto “Mejoramiento de los Servicios de Gestión Territorial del Departamento de Tacna"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSORCIO SEINNOVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio Especializado de Ecosistemas y Hábitat Marino Departamento de Tacna</t>
   </si>
   <si>
     <t xml:space="preserve">Z1</t>
@@ -1875,44 +1908,44 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C37" t="n">
         <v>2007</v>
       </c>
       <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
         <v>107</v>
-      </c>
-      <c r="E37" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
         <v>109</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D38" t="s">
         <v>110</v>
       </c>
-      <c r="C38" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>111</v>
-      </c>
-      <c r="E38" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
       <c r="C39" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D39" t="s">
         <v>114</v>
@@ -1926,166 +1959,166 @@
         <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C40" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C41" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C42" t="n">
         <v>2009</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C43" t="n">
         <v>2009</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C44" t="n">
         <v>2009</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C45" t="n">
         <v>2009</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C46" t="n">
         <v>2009</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C47" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C48" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C49" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
         <v>141</v>
@@ -2096,10 +2129,10 @@
         <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C50" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D50" t="s">
         <v>143</v>
@@ -2113,61 +2146,61 @@
         <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C51" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C52" t="n">
         <v>2013</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C53" t="n">
         <v>2013</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C54" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D54" t="s">
         <v>157</v>
@@ -2181,152 +2214,152 @@
         <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C55" t="n">
         <v>2013</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C56" t="n">
         <v>2013</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C57" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E57" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C58" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D58" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C59" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" t="s">
         <v>173</v>
-      </c>
-      <c r="E59" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" t="s">
         <v>175</v>
       </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
       <c r="C60" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="C61" t="n">
         <v>2015</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E61" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C62" t="n">
-        <v>1997</v>
+        <v>2014</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="C63" t="n">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
@@ -2334,13 +2367,13 @@
         <v>187</v>
       </c>
       <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D64" t="s">
         <v>188</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D64" t="s">
-        <v>185</v>
       </c>
       <c r="E64" t="s">
         <v>189</v>
@@ -2354,7 +2387,7 @@
         <v>191</v>
       </c>
       <c r="C65" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="D65" t="s">
         <v>192</v>
@@ -2371,7 +2404,7 @@
         <v>195</v>
       </c>
       <c r="C66" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D66" t="s">
         <v>196</v>
@@ -2385,13 +2418,13 @@
         <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="C67" t="n">
         <v>2003</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E67" t="s">
         <v>200</v>
@@ -2402,64 +2435,64 @@
         <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="C68" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D68" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C69" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D69" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E69" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C70" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D70" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E70" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="C71" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D71" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
         <v>213</v>
@@ -2473,404 +2506,404 @@
         <v>215</v>
       </c>
       <c r="C72" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D72" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="C73" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D73" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C74" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C75" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D75" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="E75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C76" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D76" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B77" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C77" t="n">
         <v>2008</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E77" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" t="s">
         <v>232</v>
-      </c>
-      <c r="B78" t="s">
-        <v>233</v>
       </c>
       <c r="C78" t="n">
         <v>2008</v>
       </c>
       <c r="D78" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="E78" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B79" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C79" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="E79" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C80" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D80" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="E80" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D81" t="s">
         <v>233</v>
       </c>
-      <c r="C81" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D81" t="s">
-        <v>228</v>
-      </c>
       <c r="E81" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C82" t="n">
         <v>2009</v>
       </c>
       <c r="D82" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E82" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C83" t="n">
         <v>2009</v>
       </c>
       <c r="D83" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E83" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C84" t="n">
         <v>2009</v>
       </c>
       <c r="D84" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C85" t="n">
         <v>2009</v>
       </c>
       <c r="D85" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="E85" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" t="s">
         <v>253</v>
-      </c>
-      <c r="B86" t="s">
-        <v>242</v>
       </c>
       <c r="C86" t="n">
         <v>2009</v>
       </c>
       <c r="D86" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C87" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D87" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E87" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C88" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D88" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B89" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C89" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D89" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E89" t="s">
-        <v>263</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="C90" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D90" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E90" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B91" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C91" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D91" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="E91" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="C92" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D92" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D93" t="s">
         <v>270</v>
       </c>
-      <c r="B93" t="s">
-        <v>242</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D93" t="s">
-        <v>271</v>
-      </c>
       <c r="E93" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C94" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D94" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="E94" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="C95" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D95" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="E95" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96">
@@ -2878,13 +2911,13 @@
         <v>281</v>
       </c>
       <c r="B96" t="s">
+        <v>253</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D96" t="s">
         <v>282</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D96" t="s">
-        <v>18</v>
       </c>
       <c r="E96" t="s">
         <v>283</v>
@@ -2895,116 +2928,167 @@
         <v>284</v>
       </c>
       <c r="B97" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C97" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B98" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C98" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D98" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E98" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C99" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D99" t="s">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>295</v>
+      </c>
+      <c r="B100" t="s">
         <v>293</v>
-      </c>
-      <c r="B100" t="s">
-        <v>278</v>
       </c>
       <c r="C100" t="n">
         <v>2014</v>
       </c>
       <c r="D100" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E100" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
       <c r="D101" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E101" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C102" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="E102" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B103" t="s">
-        <v>302</v>
-      </c>
-      <c r="C103"/>
+        <v>289</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2014</v>
+      </c>
       <c r="D103" t="s">
-        <v>157</v>
+        <v>305</v>
       </c>
       <c r="E103" t="s">
-        <v>303</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>307</v>
+      </c>
+      <c r="B104" t="s">
+        <v>289</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D104" t="s">
+        <v>308</v>
+      </c>
+      <c r="E104" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>310</v>
+      </c>
+      <c r="B105" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106"/>
+      <c r="D106" t="s">
+        <v>168</v>
+      </c>
+      <c r="E106" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/base_solo_estudios.xlsx
+++ b/base_solo_estudios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -101,6 +101,135 @@
     <t xml:space="preserve">Estudio de Biodiversidad de los Bofedales de Huaytire, Chaullapujo, Livicalani, Japopunco y Surapata en el Centro Poblado Huaytire”</t>
   </si>
   <si>
+    <t xml:space="preserve">X9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revista Chilena de Historia Natural, 74(1), 61-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Núñez, H., &amp; Espinoza, R. E. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio taxonómico de Liolaemus (Iguania: Liolaemidae) en la región sur de Perú y norte de Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicaciones del Museo de Historia Natural Universidad Nacional Mayor de San Marcos. Serie A. Zoología N° 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nelly Carrillo de Espinoza y Javier Icochea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista taxonómica preliminar de los reptiles vivientes del Perú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicaciones del Museo de Historia Natural Universidad Nacional Mayor de San Marcos. Serie A. Zoología N° 45. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lily O. Rodríguez, Jesús H. Córdova y Javier Icochea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista Preliminar de los Anfibios del Perú </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Nacional Jorge Basadre Grohmann - Facultad de Ciencias - Escuela de Biología Microbiología</t>
+  </si>
+  <si>
+    <t xml:space="preserve">César Oscar Panty Cauper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribución altitudinal de los anuros en el valle del Caplina entre la localidad de Calientes (1325 msnm) y las nacientes de la quebrada  de Piscullani (4500 msnm) en la provincia de Tacna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobierno Regional de Tacna.Gerencia de Recursos Naturales y Gestión del Medio Ambiente. Proyecto Zonificación Ecológica Económica de Tacna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Zambrano Pinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eje Temático Ecología Marina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">César Nicolás Cáceres Musaja, Samuel Rubén Yufra Silva, Javier Ignacio Apaza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eje Temático de Biodiversidad y Ecosistemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERU LNG </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victor Vargas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guía de Identificación de anfibios y reptiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobierno Regional de Tacna. GRRNyGMA. Proyecto “Mejoramiento de los Servicios de Gestión Territorial del Departamento de Tacna"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSORCIO SEINNOVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio Especializado de Ecosistemas y Hábitat Marino Departamento de Tacna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuaderno de  herpetología  35 (Supl. 1): 245-249 / UNJBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Valladares Faúndez , Pablo Franco León, Cesar Jove Chipana, Marco Navarro Guzmán, Javier Ignacio Apaza , César Cáceres Musaja. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primer registro de Liolaemus chungara Quinteros et al., 2014 y Liolaemus pleopholis Laurent, 1998 para Perú (Reptilia, Liolaemidae)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amphibian &amp; Reptile Conservation 15(2) [Taxonomy Section] UNJBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valladares-Faúndez P, Franco-León P, Jove Chipana C, Navarro Guzmán M, Ignacio-Apaza J, Apaza JI, Cáceres Musaja C, Langstroth R, Aguilar-Kirigin A, Gutierrez RC, Abdala CS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A new lizard of the Liolaemus montanus group that inhabits the hyperarid desert of southern Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobierno Regional de Tacna. GRRNyGA. SGGA. Proyecto de Inversión “Mejoramiento de los Servicios Operativos o Misionales Institucionales en La Sub Gerencia de Gestión Ambiental del Gobierno Regional de Tacna, Distrito de Tacna de la Provincia de Tacna del Departamento de Tacna”- CUI N° 2617548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ling Doris Huamani Valderrama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio especializado en inventario de anfibios y reptiles de los sitios prioritarios para la conservación (SPC) Candarave, SPC Huaytire, SPC Altoperú</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y1</t>
   </si>
   <si>
@@ -320,36 +449,12 @@
     <t xml:space="preserve">Y27</t>
   </si>
   <si>
-    <t xml:space="preserve">Gobierno Regional de Tacna.Gerencia de Recursos Naturales y Gestión del Medio Ambiente. Proyecto Zonificación Ecológica Económica de Tacna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin Zambrano Pinto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eje Temático Ecología Marina</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y28</t>
   </si>
   <si>
-    <t xml:space="preserve">César Nicolás Cáceres Musaja, Samuel Rubén Yufra Silva, Javier Ignacio Apaza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eje Temático de Biodiversidad y Ecosistemas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y29</t>
   </si>
   <si>
-    <t xml:space="preserve">Gobierno Regional de Tacna. GRRNyGMA. Proyecto “Mejoramiento de los Servicios de Gestión Territorial del Departamento de Tacna"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSORCIO SEINNOVA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudio Especializado de Ecosistemas y Hábitat Marino Departamento de Tacna</t>
-  </si>
-  <si>
     <t xml:space="preserve">Z1</t>
   </si>
   <si>
@@ -494,9 +599,6 @@
     <t xml:space="preserve">Z17</t>
   </si>
   <si>
-    <t xml:space="preserve">Universidad Nacional Jorge Basadre Grohmann - Facultad de Ciencias - Escuela de Biología Microbiología</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ana Cecilia Ticona Ramos.</t>
   </si>
   <si>
@@ -584,6 +686,49 @@
     <t xml:space="preserve">Diagnóstico situacional de guanaco (Lama guanicoe) en la zona altoandina de la Región Tacna y su plan de conservación”</t>
   </si>
   <si>
+    <t xml:space="preserve">Z27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check List 19 (2): 183–190 https://doi.org/10.15560/19.2.183  Received 7 January 2023, accepted 8 March 2023, published 17 March 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Víctor Pacheco, Raisa Cairampoma, Alan Quispe, Giancarlo Velezvilla, Alicia Vasquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notable range extension of Chinchillula sahamae Thomas, 1898 (Rodentia, Sigmodontinae) to central Peru, with natural history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revista peruana de biología 31(3): e28882 001 - 018 (octubre 2024). doi: https://dx.doi.org/10.15381/rpb.v31i3.28882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Víctor Pacheco, Pamela Sánchez-Vendizú, Silvia Diaz, Raisa Cairampoma, Guillermo D’Elía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primer registro de Abrothrix olivacea (Waterhouse, 1837) en Perú basado en material 
+histórico de Tacna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Carlo Suaña Paco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio especializado en inventario de mamíferos en el sitio prioritario para la conservación (SPC) Candarave de la región Tacna </t>
+  </si>
+  <si>
     <t xml:space="preserve">G1</t>
   </si>
   <si>
@@ -686,9 +831,7 @@
     <t xml:space="preserve">Giovana Chipana Incacuña &amp; Miguel Lleellish</t>
   </si>
   <si>
-    <t xml:space="preserve">DIAGNÓSTICO POBLACIONAL DEL CARZO
-Haplorhus peruviana EN EL VALLE DE CINTO,
-TACNA</t>
+    <t xml:space="preserve">DIAGNÓSTICO POBLACIONAL DEL CARZO Haplorhus peruviana EN EL VALLE DE CINTO, TACNA</t>
   </si>
   <si>
     <t xml:space="preserve">G11</t>
@@ -715,7 +858,7 @@
     <t xml:space="preserve">Gobierno Regional Tacna, Gerencia de Recursos Naturales y Gestión del Medio Ambiente. PROYECTO SNIP Nº 46073 “Desarrollo de capacidades para la conservación de flora y fauna amenazada en la Región Tacna"</t>
   </si>
   <si>
-    <t xml:space="preserve">Norma Vidalón Ledesma</t>
+    <t xml:space="preserve">Norma Vidalón Ledesma, Iván Tárraga, Vilma Flores</t>
   </si>
   <si>
     <t xml:space="preserve">FLORA SILVESTRE AMENAZADA ASOCIADAS EN EL VALLE DE CINTO</t>
@@ -733,7 +876,7 @@
     <t xml:space="preserve">G15</t>
   </si>
   <si>
-    <t xml:space="preserve">Norma Viladón Ledesma</t>
+    <t xml:space="preserve">Norma Viladón Ledesma, Hipólita Paniagua; Javier Ignacio</t>
   </si>
   <si>
     <t xml:space="preserve">FLORA ALTOANDINA AMENAZADA Polylepis tomentella y Polylepis besseri</t>
@@ -742,6 +885,9 @@
     <t xml:space="preserve">G16</t>
   </si>
   <si>
+    <t xml:space="preserve">Norma Viladón Ledesma; Iván Tárraga; Vilma Flores</t>
+  </si>
+  <si>
     <t xml:space="preserve">EVALUACIÓN Y CUANTIFICACIÓN Geoffroea decorticans EN EL VALLE DE SAMA LAS YARAS.</t>
   </si>
   <si>
@@ -751,12 +897,18 @@
     <t xml:space="preserve">Gobierno Regional Tacna, Gerencia de Recursos Naturales y Gestión del Medio Ambiente.  PROYECTO SNIP Nº 46073 “Desarrollo de capacidades para la conservación de flora y fauna amenazada en la Región Tacna"</t>
   </si>
   <si>
+    <t xml:space="preserve">Norma Vidalón Ledesma; Iván Tárraga</t>
+  </si>
+  <si>
     <t xml:space="preserve">EVALUACIÓN DE LA DISTRIBUCIÓN POBLACIONAL DE TILLANDSIALES (Siempre viva), EN LA ZONA ESTE DEL CERRO INTIORKO.</t>
   </si>
   <si>
     <t xml:space="preserve">G18</t>
   </si>
   <si>
+    <t xml:space="preserve">Norma Vidalón Ledesma; Iván Tárraga; Hipólita Paniagua</t>
+  </si>
+  <si>
     <t xml:space="preserve">EVALUACIÓN DE LA COBERTURA VEGETAL DE Tillandsia werdermannii (Siempre viva), EN LA ZONA ESTE DEL CERRO INTIORKO</t>
   </si>
   <si>
@@ -769,6 +921,9 @@
     <t xml:space="preserve">G20</t>
   </si>
   <si>
+    <t xml:space="preserve">Norma Viladón Ledesma, Hipólita Paniagua; Lisseth Silva</t>
+  </si>
+  <si>
     <t xml:space="preserve">EVALUACIÓN POBLACIONAL DE LA FLORA AMENAZADA (Acacia macracantha, A. huarango, Prosopis pallida, P. chilensis y Geoffroea decorticans) EN LOS VALLES COSTEROS DE LA REGIÓN TACNA.</t>
   </si>
   <si>
@@ -805,6 +960,9 @@
     <t xml:space="preserve">Gobierno Regional Tacna, Gerencia de Recursos Naturales y Gestión del Medio Ambiente. PROYECTO  SNIP Nº 46073  “Desarrollo de capacidades para la conservación de flora y fauna amenazada en la Región Tacna"</t>
   </si>
   <si>
+    <t xml:space="preserve">Norma Vidalón Ledesma, Hipólita Paniagua; Javier Ignacio; Liseth Silva; Iván Tárraga</t>
+  </si>
+  <si>
     <t xml:space="preserve">EVALUACIÓN POBLACIONAL Azorella compacta  (Yareta), EN LA ZONA  ALTO ANDINA DE LA REGIÓN TACNA</t>
   </si>
   <si>
@@ -814,28 +972,19 @@
     <t xml:space="preserve">G26</t>
   </si>
   <si>
-    <t xml:space="preserve">Gobierno Regional Tacna, Gerencia de Recursos Naturales y Gestión del Medio Ambiente. .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">César Nicolás Cáceres Musaja,  Samuel Rubén Yufra Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROYECTO DE ZONIFICACIÓN ECOLÓGICA ECONÓMICA DE TACNA</t>
+    <t xml:space="preserve">César Nicolás Cáceres Musaja,  Javier Ignacio; Samuel Rubén Yufra Silva</t>
   </si>
   <si>
     <t xml:space="preserve">G27</t>
   </si>
   <si>
-    <t xml:space="preserve">Giovanna Chipana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVALUACIÓN POBLACIONAL DE Ephadra americana (PINCO PINCO), EN LA PROVINCIA DE JORGE BASADRE (LOCUMBA) </t>
+    <t xml:space="preserve">Giovanna Chipana; Joel Córdova; Javier Ignacio, Hipólita Paniagua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVALUACIÓN POBLACIONAL DE Ephedra americana (PINCO PINCO), EN LA PROVINCIA DE JORGE BASADRE (LOCUMBA) </t>
   </si>
   <si>
     <t xml:space="preserve">G28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giovanna Chipana Incacuña</t>
   </si>
   <si>
     <t xml:space="preserve">EVALUACIÓN POBLACIONAL DE Tillandsia werdermannii (SIEMPRE VIVA) EN EL CERRO BLANCO Y CERRO ARROJADERO</t>
@@ -960,6 +1109,67 @@
   </si>
   <si>
     <t xml:space="preserve">Diversidad Florística de la Región Tacna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobierno Regional Tacna, Gerencia de Recursos Naturales y Gestión del Medio Ambiente-ACR Vilacota Maure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo Técnico de ACR Vilacota Maure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNPRG. Libro de resumen de I Congreso Internacional de Investigación en Áreas Naturales Protegidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vásquez Núñez, L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nueva taxonomía de los algarrobos del Perú, cambio del género Prosopis a Neltuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobierno Regional Tacna, Gerencia de Recursos Naturales y Gestión Ambiental. Proyecto de Inversión: “Mejoramiento de los Servicios Operativos o Misionales Institucionales en La Sub Gerencia de Gestión Ambiental del Gobierno Regional de Tacna, Distrito de Tacna de la Provincia de Tacna del Departamento de Tacna”- CUI N° 2617548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ing. M.Sc. Ph.D. Daniel Bernardo Montesinos Tubée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTUDIO ESPECIALIZADO EN INVENTARIO Y EVALUACIÓN DE FLORA en el Sitio Prioritario para la Conservación (SPC) Candarave de la región Tacna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revista peruana de biología 25(3): 229 - 240
+(Agosto 2018). doi: http://dx.doi.org/10.15381/rpb.v25i3.13408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beltrán H., J. Roque , C. Cáceres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinopsis del género Malesherbia
+(Passifloraceae) en el Perú. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museo de Historia Natural, Universidad Nacional Mayor de San Marcos. Arnaldoa 23 (1): 351 - 362. ISSN: 1815-8242 (edición impresa) ISSN: 2413-3299 (online edition)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton Beltran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinópsis del Género Xenophyllum 
+(Asteraceae: Senecioneae) del Perú</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1662,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -1466,795 +1676,795 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C16" t="n">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C17" t="n">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C18" t="n">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C19" t="n">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C20" t="n">
-        <v>2009</v>
+        <v>2024</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C21" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C22" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C23" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C25" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C26" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C27" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C28" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C29" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C30" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
         <v>87</v>
       </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
       <c r="C31" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C32" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C33" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C34" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C35" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C36" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C37" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C38" t="n">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C40" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C41" t="n">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C42" t="n">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C43" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C44" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="C45" t="n">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C46" t="n">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C50" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C51" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C52" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E52" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C53" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" t="s">
         <v>156</v>
       </c>
-      <c r="B54" t="s">
-        <v>150</v>
-      </c>
       <c r="C54" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D55" t="s">
         <v>160</v>
       </c>
-      <c r="C55" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D55" t="s">
-        <v>161</v>
-      </c>
       <c r="E55" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D56" t="s">
         <v>160</v>
       </c>
-      <c r="C56" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D56" t="s">
-        <v>164</v>
-      </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C57" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E57" t="s">
         <v>169</v>
@@ -2265,13 +2475,13 @@
         <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C58" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E58" t="s">
         <v>171</v>
@@ -2282,13 +2492,13 @@
         <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C59" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="E59" t="s">
         <v>173</v>
@@ -2302,92 +2512,92 @@
         <v>175</v>
       </c>
       <c r="C60" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D60" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" t="s">
         <v>176</v>
-      </c>
-      <c r="E60" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D61" t="s">
         <v>178</v>
       </c>
-      <c r="B61" t="s">
+      <c r="E61" t="s">
         <v>179</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D61" t="s">
-        <v>180</v>
-      </c>
-      <c r="E61" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D62" t="s">
         <v>182</v>
       </c>
-      <c r="B62" t="s">
+      <c r="E62" t="s">
         <v>183</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D62" t="s">
-        <v>184</v>
-      </c>
-      <c r="E62" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D63" t="s">
         <v>186</v>
       </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D63" t="s">
-        <v>27</v>
-      </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="C64" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C65" t="n">
-        <v>1997</v>
+        <v>2013</v>
       </c>
       <c r="D65" t="s">
         <v>192</v>
@@ -2401,418 +2611,418 @@
         <v>194</v>
       </c>
       <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D66" t="s">
         <v>195</v>
       </c>
-      <c r="C66" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>196</v>
-      </c>
-      <c r="E66" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D67" t="s">
         <v>198</v>
       </c>
-      <c r="B67" t="s">
+      <c r="E67" t="s">
         <v>199</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D67" t="s">
-        <v>196</v>
-      </c>
-      <c r="E67" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" t="s">
         <v>201</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D68" t="s">
         <v>202</v>
       </c>
-      <c r="C68" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>203</v>
-      </c>
-      <c r="E68" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D69" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" t="s">
         <v>205</v>
-      </c>
-      <c r="B69" t="s">
-        <v>206</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D69" t="s">
-        <v>207</v>
-      </c>
-      <c r="E69" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C70" t="n">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="C71" t="n">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="E71" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D72" t="s">
         <v>214</v>
       </c>
-      <c r="B72" t="s">
+      <c r="E72" t="s">
         <v>215</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D72" t="s">
-        <v>216</v>
-      </c>
-      <c r="E72" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D73" t="s">
         <v>218</v>
       </c>
-      <c r="B73" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>219</v>
-      </c>
-      <c r="E73" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B74" t="s">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="C74" t="n">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="D74" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="E75" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="C76" t="n">
         <v>2007</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="E76" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="C77" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D77" t="s">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>234</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="C78" t="n">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>58</v>
       </c>
       <c r="E78" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C79" t="n">
-        <v>2008</v>
+        <v>2023</v>
       </c>
       <c r="D79" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E79" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B80" t="s">
         <v>232</v>
       </c>
       <c r="C80" t="n">
-        <v>2008</v>
+        <v>2024</v>
       </c>
       <c r="D80" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E80" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B81" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="C81" t="n">
-        <v>2008</v>
+        <v>2024</v>
       </c>
       <c r="D81" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C82" t="n">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="D82" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E82" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B83" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C83" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E83" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D84" t="s">
         <v>244</v>
       </c>
-      <c r="C84" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D84" t="s">
-        <v>239</v>
-      </c>
       <c r="E84" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D85" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" t="s">
         <v>252</v>
-      </c>
-      <c r="B85" t="s">
-        <v>253</v>
-      </c>
-      <c r="C85" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D85" t="s">
-        <v>254</v>
-      </c>
-      <c r="E85" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>253</v>
+      </c>
+      <c r="B86" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D86" t="s">
+        <v>255</v>
+      </c>
+      <c r="E86" t="s">
         <v>256</v>
-      </c>
-      <c r="B86" t="s">
-        <v>253</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D86" t="s">
-        <v>254</v>
-      </c>
-      <c r="E86" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D87" t="s">
         <v>258</v>
       </c>
-      <c r="B87" t="s">
-        <v>253</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>259</v>
-      </c>
-      <c r="E87" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>260</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D88" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" t="s">
         <v>261</v>
-      </c>
-      <c r="B88" t="s">
-        <v>262</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D88" t="s">
-        <v>233</v>
-      </c>
-      <c r="E88" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D89" t="s">
         <v>264</v>
       </c>
-      <c r="B89" t="s">
-        <v>253</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D89" t="s">
-        <v>254</v>
-      </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B90" t="s">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="C90" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D90" t="s">
         <v>267</v>
@@ -2826,269 +3036,643 @@
         <v>269</v>
       </c>
       <c r="B91" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="C91" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D91" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C92" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D92" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="E92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="C93" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D93" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E93" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C94" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D94" t="s">
-        <v>216</v>
+        <v>281</v>
       </c>
       <c r="E94" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>283</v>
+      </c>
+      <c r="B95" t="s">
         <v>280</v>
       </c>
-      <c r="B95" t="s">
-        <v>167</v>
-      </c>
       <c r="C95" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D95" t="s">
-        <v>168</v>
+        <v>284</v>
       </c>
       <c r="E95" t="s">
-        <v>169</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="C96" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E96" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C97" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D97" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E97" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B98" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C98" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D98" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E98" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C99" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="E99" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C100" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D100" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E100" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B101" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C101" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D101" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E101" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="C102" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D102" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E102" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B103" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="C103" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D103" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E103" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B104" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="C104" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D104" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E104" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B105" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C105" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
+        <v>315</v>
       </c>
       <c r="E105" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B106" t="s">
-        <v>313</v>
-      </c>
-      <c r="C106"/>
+        <v>305</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2009</v>
+      </c>
       <c r="D106" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="E106" t="s">
-        <v>314</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>318</v>
+      </c>
+      <c r="B107" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D107" t="s">
+        <v>319</v>
+      </c>
+      <c r="E107" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>320</v>
+      </c>
+      <c r="B108" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D108" t="s">
+        <v>321</v>
+      </c>
+      <c r="E108" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>323</v>
+      </c>
+      <c r="B109" t="s">
+        <v>305</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D109" t="s">
+        <v>321</v>
+      </c>
+      <c r="E109" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110" t="s">
+        <v>305</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D110" t="s">
+        <v>321</v>
+      </c>
+      <c r="E110" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>327</v>
+      </c>
+      <c r="B111" t="s">
+        <v>328</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D111" t="s">
+        <v>264</v>
+      </c>
+      <c r="E111" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>330</v>
+      </c>
+      <c r="B112" t="s">
+        <v>201</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D112" t="s">
+        <v>202</v>
+      </c>
+      <c r="E112" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>331</v>
+      </c>
+      <c r="B113" t="s">
+        <v>305</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D113" t="s">
+        <v>332</v>
+      </c>
+      <c r="E113" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>334</v>
+      </c>
+      <c r="B114" t="s">
+        <v>335</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D114" t="s">
+        <v>336</v>
+      </c>
+      <c r="E114" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>338</v>
+      </c>
+      <c r="B115" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D115" t="s">
+        <v>340</v>
+      </c>
+      <c r="E115" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>342</v>
+      </c>
+      <c r="B116" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>345</v>
+      </c>
+      <c r="B117" t="s">
+        <v>343</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D117" t="s">
+        <v>346</v>
+      </c>
+      <c r="E117" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>348</v>
+      </c>
+      <c r="B118" t="s">
+        <v>339</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D118" t="s">
+        <v>349</v>
+      </c>
+      <c r="E118" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>351</v>
+      </c>
+      <c r="B119" t="s">
+        <v>339</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D119" t="s">
+        <v>352</v>
+      </c>
+      <c r="E119" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>354</v>
+      </c>
+      <c r="B120" t="s">
+        <v>339</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D120" t="s">
+        <v>355</v>
+      </c>
+      <c r="E120" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>357</v>
+      </c>
+      <c r="B121" t="s">
+        <v>339</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D121" t="s">
+        <v>358</v>
+      </c>
+      <c r="E121" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>360</v>
+      </c>
+      <c r="B122" t="s">
+        <v>339</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D122" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>362</v>
+      </c>
+      <c r="B123" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123"/>
+      <c r="D123" t="s">
+        <v>202</v>
+      </c>
+      <c r="E123" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>365</v>
+      </c>
+      <c r="B124" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D124" t="s">
+        <v>367</v>
+      </c>
+      <c r="E124" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>368</v>
+      </c>
+      <c r="B125" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D125" t="s">
+        <v>370</v>
+      </c>
+      <c r="E125" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>372</v>
+      </c>
+      <c r="B126" t="s">
+        <v>373</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D126" t="s">
+        <v>374</v>
+      </c>
+      <c r="E126" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>376</v>
+      </c>
+      <c r="B127" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D127" t="s">
+        <v>378</v>
+      </c>
+      <c r="E127" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>380</v>
+      </c>
+      <c r="B128" t="s">
+        <v>381</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D128" t="s">
+        <v>382</v>
+      </c>
+      <c r="E128" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
